--- a/results.xlsx
+++ b/results.xlsx
@@ -397,356 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>url</v>
-      </c>
-      <c r="B1" t="str">
-        <v>username</v>
-      </c>
-      <c r="C1" t="str">
-        <v>description</v>
-      </c>
-      <c r="D1" t="str">
-        <v>like</v>
-      </c>
-      <c r="E1" t="str">
-        <v>follow</v>
-      </c>
-      <c r="F1" t="str">
-        <v>email</v>
-      </c>
-      <c r="G1" t="str">
-        <v>sdt</v>
-      </c>
-      <c r="H1" t="str">
-        <v>diaChi</v>
-      </c>
-      <c r="I1" t="str">
-        <v>gioHoatDong</v>
-      </c>
-      <c r="J1" t="str">
-        <v>website</v>
-      </c>
-      <c r="K1" t="str">
-        <v>avatar</v>
-      </c>
-      <c r="L1" t="str">
-        <v>bia</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>https://www.facebook.com/104741829108360</v>
-      </c>
-      <c r="B2" t="str">
-        <v>104741829108360</v>
-      </c>
-      <c r="C2" t="str">
-        <v>không có</v>
-      </c>
-      <c r="D2" t="str">
-        <v>không có</v>
-      </c>
-      <c r="E2" t="str">
-        <v>không có</v>
-      </c>
-      <c r="F2" t="str">
-        <v>không có</v>
-      </c>
-      <c r="G2" t="str">
-        <v>04741829108</v>
-      </c>
-      <c r="H2" t="str">
-        <v>không có</v>
-      </c>
-      <c r="I2" t="str">
-        <v>không có</v>
-      </c>
-      <c r="J2" t="str">
-        <v>không có</v>
-      </c>
-      <c r="K2" t="str">
-        <v>không có</v>
-      </c>
-      <c r="L2" t="str">
-        <v>không có</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>https://www.facebook.com/107241335520836</v>
-      </c>
-      <c r="B3" t="str">
-        <v>people/%C3%81o-Ba-L%E1%BB%97-%C4%90%E1%BA%B9p-Cho-Nam-%C3%81o-Ba-L%E1%BB%97-Nam-Cao-C%E1%BA%A5p-Ao-Ba-Lo-Nam-Dep/100087441450839</v>
-      </c>
-      <c r="C3" t="str">
-        <v>có</v>
-      </c>
-      <c r="D3" t="str">
-        <v>0 likes</v>
-      </c>
-      <c r="E3" t="str">
-        <v>0 followers</v>
-      </c>
-      <c r="F3" t="str">
-        <v>không có</v>
-      </c>
-      <c r="G3" t="str">
-        <v>03917882008</v>
-      </c>
-      <c r="H3" t="str">
-        <v>không có</v>
-      </c>
-      <c r="I3" t="str">
-        <v>không có</v>
-      </c>
-      <c r="J3" t="str">
-        <v>không có</v>
-      </c>
-      <c r="K3" t="str">
-        <v>có</v>
-      </c>
-      <c r="L3" t="str">
-        <v>có</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>https://www.facebook.com/103393505911368</v>
-      </c>
-      <c r="B4" t="str">
-        <v>aobalonamcotton</v>
-      </c>
-      <c r="C4" t="str">
-        <v>có</v>
-      </c>
-      <c r="D4" t="str">
-        <v>1 likes</v>
-      </c>
-      <c r="E4" t="str">
-        <v>24 followers</v>
-      </c>
-      <c r="F4" t="str">
-        <v>6223ichidaro0110@gmail.comzalo.me</v>
-      </c>
-      <c r="G4" t="str">
-        <v>0396716223</v>
-      </c>
-      <c r="H4" t="str">
-        <v>không có</v>
-      </c>
-      <c r="I4" t="str">
-        <v>không có</v>
-      </c>
-      <c r="J4" t="str">
-        <v>không có</v>
-      </c>
-      <c r="K4" t="str">
-        <v>có</v>
-      </c>
-      <c r="L4" t="str">
-        <v>có</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>https://www.facebook.com/102024152717843</v>
-      </c>
-      <c r="B5" t="str">
-        <v>aothunbalobodynam</v>
-      </c>
-      <c r="C5" t="str">
-        <v>có</v>
-      </c>
-      <c r="D5" t="str">
-        <v>3 likes</v>
-      </c>
-      <c r="E5" t="str">
-        <v>34 followers</v>
-      </c>
-      <c r="F5" t="str">
-        <v>6223ichidaro0110@gmail.comzalo.me</v>
-      </c>
-      <c r="G5" t="str">
-        <v>0396716223</v>
-      </c>
-      <c r="H5" t="str">
-        <v>không có</v>
-      </c>
-      <c r="I5" t="str">
-        <v>không có</v>
-      </c>
-      <c r="J5" t="str">
-        <v>không có</v>
-      </c>
-      <c r="K5" t="str">
-        <v>có</v>
-      </c>
-      <c r="L5" t="str">
-        <v>có</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>https://www.facebook.com/102463779339296</v>
-      </c>
-      <c r="B6" t="str">
-        <v>aophong3lo</v>
-      </c>
-      <c r="C6" t="str">
-        <v>có</v>
-      </c>
-      <c r="D6" t="str">
-        <v>0 likes</v>
-      </c>
-      <c r="E6" t="str">
-        <v>19 followers</v>
-      </c>
-      <c r="F6" t="str">
-        <v>6223ichidaro0110@gmail.comzalo.me</v>
-      </c>
-      <c r="G6" t="str">
-        <v>0396716223</v>
-      </c>
-      <c r="H6" t="str">
-        <v>không có</v>
-      </c>
-      <c r="I6" t="str">
-        <v>không có</v>
-      </c>
-      <c r="J6" t="str">
-        <v>không có</v>
-      </c>
-      <c r="K6" t="str">
-        <v>có</v>
-      </c>
-      <c r="L6" t="str">
-        <v>có</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>https://www.facebook.com/112480144988695</v>
-      </c>
-      <c r="B7" t="str">
-        <v>aobalotanktoptapgym</v>
-      </c>
-      <c r="C7" t="str">
-        <v>có</v>
-      </c>
-      <c r="D7" t="str">
-        <v>0 likes</v>
-      </c>
-      <c r="E7" t="str">
-        <v>23 followers</v>
-      </c>
-      <c r="F7" t="str">
-        <v>6223ichidaro0110@gmail.comzalo.me</v>
-      </c>
-      <c r="G7" t="str">
-        <v>0396716223</v>
-      </c>
-      <c r="H7" t="str">
-        <v>không có</v>
-      </c>
-      <c r="I7" t="str">
-        <v>không có</v>
-      </c>
-      <c r="J7" t="str">
-        <v>không có</v>
-      </c>
-      <c r="K7" t="str">
-        <v>có</v>
-      </c>
-      <c r="L7" t="str">
-        <v>có</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>https://www.facebook.com/100874952835756</v>
-      </c>
-      <c r="B8" t="str">
-        <v>people/Mua-%C3%81o-Thun-Ba-L%E1%BB%97-Nam-%C3%81o-Thun-3-Lo-Nam-%C3%81o-Thun-Ba-L%E1%BB%97-Nam-Gi%C3%A1-R%E1%BA%BB/100086955292303</v>
-      </c>
-      <c r="C8" t="str">
-        <v>có</v>
-      </c>
-      <c r="D8" t="str">
-        <v>0 likes</v>
-      </c>
-      <c r="E8" t="str">
-        <v>không có</v>
-      </c>
-      <c r="F8" t="str">
-        <v>không có</v>
-      </c>
-      <c r="G8" t="str">
-        <v>0396716223</v>
-      </c>
-      <c r="H8" t="str">
-        <v>không có</v>
-      </c>
-      <c r="I8" t="str">
-        <v>không có</v>
-      </c>
-      <c r="J8" t="str">
-        <v>không có</v>
-      </c>
-      <c r="K8" t="str">
-        <v>có</v>
-      </c>
-      <c r="L8" t="str">
-        <v>có</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>https://www.facebook.com/105790229001196</v>
-      </c>
-      <c r="B9" t="str">
-        <v>aobalonamrongsatnach</v>
-      </c>
-      <c r="C9" t="str">
-        <v>có</v>
-      </c>
-      <c r="D9" t="str">
-        <v>11 likes</v>
-      </c>
-      <c r="E9" t="str">
-        <v>50 followers</v>
-      </c>
-      <c r="F9" t="str">
-        <v>6223ichidaro0110@gmail.comzalo.me</v>
-      </c>
-      <c r="G9" t="str">
-        <v>0396716223</v>
-      </c>
-      <c r="H9" t="str">
-        <v>không có</v>
-      </c>
-      <c r="I9" t="str">
-        <v>không có</v>
-      </c>
-      <c r="J9" t="str">
-        <v>không có</v>
-      </c>
-      <c r="K9" t="str">
-        <v>có</v>
-      </c>
-      <c r="L9" t="str">
-        <v>có</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>